--- a/data_input_line.xlsx
+++ b/data_input_line.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghwalee/Library/Mobile Documents/com~apple~CloudDocs/研究(update_20241029)/NEDO/koike/koike_ISCIE2022_share_v2_mac/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeonghwalee/Documents/MATLAB/LMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EF096C-F2B5-CD4F-B82F-C84B6462AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E414CC1-91E2-9840-B782-CADAFCD29DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="1220" windowWidth="27900" windowHeight="16660" xr2:uid="{22DFADB7-745F-BE4B-BFC9-C5E9B30D35D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>line reactance [p.u.]</t>
     <phoneticPr fontId="1"/>
@@ -57,12 +57,18 @@
     <t>X4</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +83,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,13 +193,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C59A2E9-05D1-5C41-AC20-ABD14421793B}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -545,32 +561,48 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.2</v>
+      <c r="C3" s="5">
+        <v>8.0100000000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.5</v>
+      <c r="C4" s="5">
+        <v>1.4420000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>7.0000000000000007E-2</v>
+      <c r="C5" s="5">
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="21" thickBot="1">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.1</v>
+      <c r="C6" s="5">
+        <v>2.3879999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.3690000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21" thickBot="1">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.4420000000000001E-2</v>
       </c>
     </row>
   </sheetData>
